--- a/data/tag_list.xlsx
+++ b/data/tag_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\source\python\tag_importer\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F409D765-0551-4B7C-9E90-9C992E09B6B4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D7A429F-36E4-4E44-ACF1-4ABD683DBF78}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-1455" windowWidth="29040" windowHeight="15840" xr2:uid="{7328A549-C1C2-4D11-B206-D26E63334164}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="162">
   <si>
     <t>DO</t>
   </si>
@@ -170,12 +170,6 @@
     <t>TAG_PATTERN</t>
   </si>
   <si>
-    <t>.+\d.+</t>
-  </si>
-  <si>
-    <t>TAG_LOOP_NUMBER</t>
-  </si>
-  <si>
     <t xml:space="preserve">GC 1 LEVEL TRANSMITTER </t>
   </si>
   <si>
@@ -191,9 +185,6 @@
     <t>GENERATE</t>
   </si>
   <si>
-    <t>CLONE</t>
-  </si>
-  <si>
     <t>CLAS</t>
   </si>
   <si>
@@ -338,15 +329,9 @@
     <t>CHAMBER 1</t>
   </si>
   <si>
-    <t>CHAMBER 1\LOCALS</t>
-  </si>
-  <si>
     <t>CHAMBER 2</t>
   </si>
   <si>
-    <t>CHAMBER 2\LOCALS</t>
-  </si>
-  <si>
     <t>DESC BOOL1</t>
   </si>
   <si>
@@ -494,9 +479,6 @@
     <t>TEST FLT Hello world</t>
   </si>
   <si>
-    <t>SCRIPT_VALYE</t>
-  </si>
-  <si>
     <t>PC_150*</t>
   </si>
   <si>
@@ -519,6 +501,27 @@
   </si>
   <si>
     <t>PC_2332*</t>
+  </si>
+  <si>
+    <t>CHAMBER 1\SOFTS</t>
+  </si>
+  <si>
+    <t>CHAMBER 2\SOFTS</t>
+  </si>
+  <si>
+    <t>C21_PRIMARY*</t>
+  </si>
+  <si>
+    <t>RULE</t>
+  </si>
+  <si>
+    <t>SCRIPT_VALUE</t>
+  </si>
+  <si>
+    <t>GROUP_NUM</t>
+  </si>
+  <si>
+    <t>CHAMBER 3</t>
   </si>
 </sst>
 </file>
@@ -567,7 +570,21 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="14">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -962,558 +979,567 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C63F612A-BFA4-4A51-BAC5-F972F72A4882}">
-  <dimension ref="A1:M20"/>
+  <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A17" sqref="A17:H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.85546875" customWidth="1"/>
     <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="23.85546875" customWidth="1"/>
-    <col min="7" max="7" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.7109375" customWidth="1"/>
-    <col min="13" max="13" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="23.85546875" customWidth="1"/>
+    <col min="8" max="8" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.7109375" customWidth="1"/>
+    <col min="14" max="14" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B1" t="s">
         <v>11</v>
       </c>
       <c r="C1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D1" t="s">
         <v>43</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>24</v>
       </c>
-      <c r="E1" t="s">
-        <v>60</v>
-      </c>
       <c r="F1" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="G1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H1" t="s">
         <v>19</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>12</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>13</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>14</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>16</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>15</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B2" t="s">
         <v>26</v>
       </c>
-      <c r="D2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F2" t="s">
-        <v>99</v>
+      <c r="E2" t="s">
+        <v>44</v>
       </c>
       <c r="G2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="H2" t="s">
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="I2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J2" t="s">
         <v>10</v>
       </c>
-      <c r="J2" t="s">
-        <v>49</v>
-      </c>
-      <c r="K2">
+      <c r="K2" t="s">
+        <v>47</v>
+      </c>
+      <c r="L2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B3" t="s">
         <v>27</v>
       </c>
-      <c r="D3" t="s">
-        <v>46</v>
-      </c>
-      <c r="F3" t="s">
-        <v>99</v>
+      <c r="E3" t="s">
+        <v>44</v>
       </c>
       <c r="G3" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="H3" t="s">
+        <v>96</v>
+      </c>
+      <c r="I3" t="s">
         <v>1</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>10</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
+        <v>47</v>
+      </c>
+      <c r="L3" t="s">
         <v>49</v>
       </c>
-      <c r="K3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B4" t="s">
         <v>28</v>
       </c>
-      <c r="D4" t="s">
-        <v>46</v>
-      </c>
-      <c r="F4" t="s">
-        <v>99</v>
+      <c r="E4" t="s">
+        <v>44</v>
       </c>
       <c r="G4" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="H4" t="s">
+        <v>96</v>
+      </c>
+      <c r="I4" t="s">
         <v>2</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>3</v>
       </c>
-      <c r="J4" t="s">
-        <v>49</v>
-      </c>
-      <c r="K4">
+      <c r="K4" t="s">
+        <v>47</v>
+      </c>
+      <c r="L4">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B5" t="s">
         <v>29</v>
       </c>
-      <c r="D5" t="s">
-        <v>46</v>
-      </c>
-      <c r="F5" t="s">
-        <v>99</v>
+      <c r="E5" t="s">
+        <v>44</v>
       </c>
       <c r="G5" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="H5" t="s">
+        <v>96</v>
+      </c>
+      <c r="I5" t="s">
         <v>2</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>6</v>
       </c>
-      <c r="J5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B6" t="s">
         <v>30</v>
       </c>
-      <c r="D6" t="s">
-        <v>46</v>
-      </c>
-      <c r="F6" t="s">
-        <v>99</v>
+      <c r="E6" t="s">
+        <v>44</v>
       </c>
       <c r="G6" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="H6" t="s">
+        <v>96</v>
+      </c>
+      <c r="I6" t="s">
         <v>2</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>4</v>
       </c>
-      <c r="J6" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B7" t="s">
         <v>31</v>
       </c>
-      <c r="D7" t="s">
-        <v>46</v>
-      </c>
-      <c r="F7" t="s">
-        <v>99</v>
+      <c r="E7" t="s">
+        <v>44</v>
       </c>
       <c r="G7" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="H7" t="s">
+        <v>96</v>
+      </c>
+      <c r="I7" t="s">
         <v>2</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>7</v>
       </c>
-      <c r="J7" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B8" t="s">
         <v>32</v>
       </c>
-      <c r="D8" t="s">
-        <v>46</v>
-      </c>
-      <c r="F8" t="s">
-        <v>99</v>
+      <c r="E8" t="s">
+        <v>44</v>
       </c>
       <c r="G8" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="H8" t="s">
+        <v>96</v>
+      </c>
+      <c r="I8" t="s">
         <v>2</v>
       </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
         <v>5</v>
       </c>
-      <c r="J8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B9" t="s">
         <v>33</v>
       </c>
-      <c r="D9" t="s">
-        <v>46</v>
-      </c>
-      <c r="F9" t="s">
-        <v>99</v>
+      <c r="E9" t="s">
+        <v>44</v>
       </c>
       <c r="G9" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="H9" t="s">
+        <v>96</v>
+      </c>
+      <c r="I9" t="s">
         <v>2</v>
       </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
         <v>8</v>
       </c>
-      <c r="J9" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B10" t="s">
         <v>34</v>
       </c>
-      <c r="D10" t="s">
-        <v>46</v>
-      </c>
-      <c r="F10" t="s">
-        <v>99</v>
+      <c r="E10" t="s">
+        <v>44</v>
       </c>
       <c r="G10" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="H10" t="s">
+        <v>96</v>
+      </c>
+      <c r="I10" t="s">
         <v>9</v>
       </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
         <v>3</v>
       </c>
-      <c r="J10" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>50</v>
-      </c>
-      <c r="C11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" t="s">
         <v>42</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>36</v>
       </c>
-      <c r="E11" t="s">
-        <v>77</v>
-      </c>
       <c r="F11" t="s">
-        <v>35</v>
+        <v>74</v>
       </c>
       <c r="G11" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>51</v>
-      </c>
-      <c r="C12" t="s">
-        <v>44</v>
+        <v>153</v>
       </c>
       <c r="D12" t="s">
-        <v>44</v>
+        <v>147</v>
+      </c>
+      <c r="E12" t="s">
+        <v>63</v>
       </c>
       <c r="F12" t="s">
-        <v>101</v>
+        <v>50</v>
       </c>
       <c r="G12" t="s">
-        <v>101</v>
-      </c>
-      <c r="J12" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+        <v>155</v>
+      </c>
+      <c r="H12" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>159</v>
-      </c>
-      <c r="C13" t="s">
         <v>153</v>
       </c>
       <c r="D13" t="s">
-        <v>66</v>
+        <v>148</v>
       </c>
       <c r="E13" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="F13" t="s">
-        <v>100</v>
+        <v>68</v>
       </c>
       <c r="G13" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+        <v>155</v>
+      </c>
+      <c r="H13" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>159</v>
-      </c>
-      <c r="C14" t="s">
+        <v>48</v>
+      </c>
+      <c r="D14" t="s">
+        <v>150</v>
+      </c>
+      <c r="E14" t="s">
+        <v>73</v>
+      </c>
+      <c r="F14" t="s">
+        <v>58</v>
+      </c>
+      <c r="G14" t="s">
+        <v>155</v>
+      </c>
+      <c r="H14" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>48</v>
+      </c>
+      <c r="D15" t="s">
+        <v>149</v>
+      </c>
+      <c r="E15" t="s">
+        <v>95</v>
+      </c>
+      <c r="F15" t="s">
+        <v>78</v>
+      </c>
+      <c r="G15" t="s">
+        <v>156</v>
+      </c>
+      <c r="H15" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>48</v>
+      </c>
+      <c r="D16" t="s">
+        <v>134</v>
+      </c>
+      <c r="E16" t="s">
+        <v>127</v>
+      </c>
+      <c r="F16" t="s">
+        <v>78</v>
+      </c>
+      <c r="G16" t="s">
+        <v>156</v>
+      </c>
+      <c r="H16" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>48</v>
+      </c>
+      <c r="D17" t="s">
+        <v>108</v>
+      </c>
+      <c r="E17" t="s">
+        <v>109</v>
+      </c>
+      <c r="F17" t="s">
+        <v>110</v>
+      </c>
+      <c r="G17" t="s">
+        <v>155</v>
+      </c>
+      <c r="H17" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>48</v>
+      </c>
+      <c r="D18" t="s">
         <v>154</v>
       </c>
-      <c r="D14" t="s">
-        <v>75</v>
-      </c>
-      <c r="E14" t="s">
-        <v>71</v>
-      </c>
-      <c r="F14" t="s">
-        <v>100</v>
-      </c>
-      <c r="G14" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>50</v>
-      </c>
-      <c r="C15" t="s">
-        <v>156</v>
-      </c>
-      <c r="D15" t="s">
-        <v>76</v>
-      </c>
-      <c r="E15" t="s">
-        <v>61</v>
-      </c>
-      <c r="F15" t="s">
-        <v>100</v>
-      </c>
-      <c r="G15" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>50</v>
-      </c>
-      <c r="C16" t="s">
+      <c r="E18" t="s">
+        <v>130</v>
+      </c>
+      <c r="F18" t="s">
+        <v>131</v>
+      </c>
+      <c r="G18" t="s">
         <v>155</v>
       </c>
-      <c r="D16" t="s">
-        <v>98</v>
-      </c>
-      <c r="E16" t="s">
-        <v>81</v>
-      </c>
-      <c r="F16" t="s">
-        <v>102</v>
-      </c>
-      <c r="G16" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>50</v>
-      </c>
-      <c r="C17" t="s">
-        <v>139</v>
-      </c>
-      <c r="D17" t="s">
-        <v>132</v>
-      </c>
-      <c r="E17" t="s">
-        <v>81</v>
-      </c>
-      <c r="F17" t="s">
-        <v>102</v>
-      </c>
-      <c r="G17" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>50</v>
-      </c>
-      <c r="C18" t="s">
-        <v>113</v>
-      </c>
-      <c r="D18" t="s">
-        <v>114</v>
-      </c>
-      <c r="E18" t="s">
-        <v>115</v>
-      </c>
-      <c r="F18" t="s">
-        <v>100</v>
-      </c>
-      <c r="G18" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H18" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>50</v>
-      </c>
-      <c r="C19" t="s">
-        <v>160</v>
+        <v>48</v>
       </c>
       <c r="D19" t="s">
         <v>135</v>
       </c>
       <c r="E19" t="s">
-        <v>136</v>
+        <v>152</v>
       </c>
       <c r="F19" t="s">
-        <v>100</v>
+        <v>18</v>
       </c>
       <c r="G19" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="H19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>50</v>
-      </c>
-      <c r="C20" t="s">
-        <v>140</v>
+        <v>48</v>
       </c>
       <c r="D20" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E20" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="F20" t="s">
-        <v>18</v>
+        <v>74</v>
       </c>
       <c r="G20" t="s">
-        <v>18</v>
+        <v>35</v>
+      </c>
+      <c r="H20" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="D1:F1 D2:E11 D13:E16 G13:G16 D18:E19 D20:F1048576">
-    <cfRule type="expression" dxfId="0" priority="10">
-      <formula>LEN(D1)&gt;50</formula>
+  <conditionalFormatting sqref="E1:G1 E2:F15 H12:H15 E17:F18 E19:G19 E21:G1048576">
+    <cfRule type="expression" dxfId="13" priority="14">
+      <formula>LEN(E1)&gt;50</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F13:F15">
-    <cfRule type="expression" dxfId="11" priority="9">
-      <formula>LEN(F13)&gt;50</formula>
+  <conditionalFormatting sqref="G12:G14">
+    <cfRule type="expression" dxfId="12" priority="13">
+      <formula>LEN(G12)&gt;50</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F16">
-    <cfRule type="expression" dxfId="10" priority="8">
-      <formula>LEN(F16)&gt;50</formula>
+  <conditionalFormatting sqref="G15">
+    <cfRule type="expression" dxfId="11" priority="12">
+      <formula>LEN(G15)&gt;50</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D17:E17 G17">
-    <cfRule type="expression" dxfId="9" priority="7">
-      <formula>LEN(D17)&gt;50</formula>
+  <conditionalFormatting sqref="E16:F16 H16">
+    <cfRule type="expression" dxfId="10" priority="11">
+      <formula>LEN(E16)&gt;50</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F17">
-    <cfRule type="expression" dxfId="8" priority="6">
-      <formula>LEN(F17)&gt;50</formula>
+  <conditionalFormatting sqref="G16">
+    <cfRule type="expression" dxfId="9" priority="10">
+      <formula>LEN(G16)&gt;50</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H17">
+    <cfRule type="expression" dxfId="8" priority="9">
+      <formula>LEN(H17)&gt;50</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G17">
+    <cfRule type="expression" dxfId="7" priority="8">
+      <formula>LEN(G17)&gt;50</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G18">
-    <cfRule type="expression" dxfId="7" priority="5">
+    <cfRule type="expression" dxfId="6" priority="7">
       <formula>LEN(G18)&gt;50</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F18">
-    <cfRule type="expression" dxfId="6" priority="4">
-      <formula>LEN(F18)&gt;50</formula>
+  <conditionalFormatting sqref="H18">
+    <cfRule type="expression" dxfId="5" priority="6">
+      <formula>LEN(H18)&gt;50</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F19">
-    <cfRule type="expression" dxfId="5" priority="3">
-      <formula>LEN(F19)&gt;50</formula>
+  <conditionalFormatting sqref="H19">
+    <cfRule type="expression" dxfId="4" priority="5">
+      <formula>LEN(H19)&gt;50</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G19">
-    <cfRule type="expression" dxfId="4" priority="2">
-      <formula>LEN(G19)&gt;50</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G20">
-    <cfRule type="expression" dxfId="3" priority="1">
-      <formula>LEN(G20)&gt;50</formula>
+  <conditionalFormatting sqref="E20:F20">
+    <cfRule type="expression" dxfId="3" priority="4">
+      <formula>LEN(E20)&gt;50</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1523,10 +1549,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4975464E-088E-4B5A-9F27-D7850A8733CD}">
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C24"/>
+      <selection activeCell="A11" sqref="A11:G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1539,7 +1565,7 @@
     <col min="6" max="6" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>19</v>
       </c>
@@ -1553,16 +1579,19 @@
         <v>17</v>
       </c>
       <c r="E1" t="s">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="F1" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="G1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+        <v>128</v>
+      </c>
+      <c r="H1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -1584,8 +1613,11 @@
       <c r="G2" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -1602,13 +1634,16 @@
         <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="G3" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -1625,13 +1660,16 @@
         <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="G4" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -1648,13 +1686,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="G5" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -1671,13 +1712,16 @@
         <v>0</v>
       </c>
       <c r="F6" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="G6" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -1694,13 +1738,16 @@
         <v>0</v>
       </c>
       <c r="F7" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="G7" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -1717,13 +1764,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="G8" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>35</v>
       </c>
@@ -1740,13 +1790,16 @@
         <v>0</v>
       </c>
       <c r="F9" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="G9" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>35</v>
       </c>
@@ -1763,15 +1816,18 @@
         <v>0</v>
       </c>
       <c r="F10" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="G10" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B11" t="s">
         <v>3</v>
@@ -1791,10 +1847,13 @@
       <c r="G11" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B12" t="s">
         <v>6</v>
@@ -1810,15 +1869,18 @@
         <v>1</v>
       </c>
       <c r="F12" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="G12" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B13" t="s">
         <v>4</v>
@@ -1834,15 +1896,18 @@
         <v>1</v>
       </c>
       <c r="F13" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="G13" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B14" t="s">
         <v>7</v>
@@ -1858,15 +1923,18 @@
         <v>1</v>
       </c>
       <c r="F14" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="G14" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B15" t="s">
         <v>5</v>
@@ -1882,15 +1950,18 @@
         <v>1</v>
       </c>
       <c r="F15" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="G15" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B16" t="s">
         <v>8</v>
@@ -1906,15 +1977,18 @@
         <v>1</v>
       </c>
       <c r="F16" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="G16" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B17" t="s">
         <v>10</v>
@@ -1930,15 +2004,18 @@
         <v>1</v>
       </c>
       <c r="F17" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="G17" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B18" t="s">
         <v>3</v>
@@ -1958,10 +2035,13 @@
       <c r="G18" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B19" t="s">
         <v>6</v>
@@ -1977,15 +2057,18 @@
         <v>2</v>
       </c>
       <c r="F19" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="G19" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B20" t="s">
         <v>4</v>
@@ -2001,15 +2084,18 @@
         <v>2</v>
       </c>
       <c r="F20" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="G20" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B21" t="s">
         <v>7</v>
@@ -2025,15 +2111,18 @@
         <v>2</v>
       </c>
       <c r="F21" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="G21" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B22" t="s">
         <v>5</v>
@@ -2049,15 +2138,18 @@
         <v>2</v>
       </c>
       <c r="F22" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="G22" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B23" t="s">
         <v>8</v>
@@ -2073,15 +2165,18 @@
         <v>2</v>
       </c>
       <c r="F23" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="G23" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B24" t="s">
         <v>10</v>
@@ -2097,10 +2192,201 @@
         <v>2</v>
       </c>
       <c r="F24" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="G24" s="1" t="b">
         <v>0</v>
+      </c>
+      <c r="H24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>161</v>
+      </c>
+      <c r="B25" t="s">
+        <v>3</v>
+      </c>
+      <c r="C25">
+        <v>3000</v>
+      </c>
+      <c r="D25">
+        <v>100</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25" t="s">
+        <v>3</v>
+      </c>
+      <c r="G25" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>161</v>
+      </c>
+      <c r="B26" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26">
+        <f>C25+D25*2</f>
+        <v>3200</v>
+      </c>
+      <c r="D26">
+        <v>100</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26" t="s">
+        <v>123</v>
+      </c>
+      <c r="G26" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>161</v>
+      </c>
+      <c r="B27" t="s">
+        <v>4</v>
+      </c>
+      <c r="C27">
+        <f>C26+D26</f>
+        <v>3300</v>
+      </c>
+      <c r="D27">
+        <v>100</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27" t="s">
+        <v>124</v>
+      </c>
+      <c r="G27" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H27">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>161</v>
+      </c>
+      <c r="B28" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28">
+        <f>C27+D27</f>
+        <v>3400</v>
+      </c>
+      <c r="D28">
+        <v>100</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28" t="s">
+        <v>124</v>
+      </c>
+      <c r="G28" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>161</v>
+      </c>
+      <c r="B29" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29">
+        <f>C28+D28</f>
+        <v>3500</v>
+      </c>
+      <c r="D29">
+        <v>100</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29" t="s">
+        <v>125</v>
+      </c>
+      <c r="G29" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>161</v>
+      </c>
+      <c r="B30" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30">
+        <f>C29+D29*2</f>
+        <v>3700</v>
+      </c>
+      <c r="D30">
+        <v>100</v>
+      </c>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30" t="s">
+        <v>125</v>
+      </c>
+      <c r="G30" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>161</v>
+      </c>
+      <c r="B31" t="s">
+        <v>10</v>
+      </c>
+      <c r="C31">
+        <f>C30+D30*2</f>
+        <v>3900</v>
+      </c>
+      <c r="D31">
+        <v>100</v>
+      </c>
+      <c r="E31">
+        <v>2</v>
+      </c>
+      <c r="F31" t="s">
+        <v>126</v>
+      </c>
+      <c r="G31" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -2112,8 +2398,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41752C11-1C6A-4B3A-91C0-D7F7A9019D57}">
   <dimension ref="A1:F42"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="J29" sqref="J29"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2125,7 +2411,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B1" t="s">
         <v>37</v>
@@ -2140,18 +2426,18 @@
         <v>21</v>
       </c>
       <c r="F1" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B2" t="s">
         <v>38</v>
       </c>
       <c r="C2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
@@ -2165,13 +2451,13 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B3" t="s">
         <v>39</v>
       </c>
       <c r="C3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
@@ -2185,13 +2471,13 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B4" t="s">
         <v>40</v>
       </c>
       <c r="C4" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D4" t="s">
         <v>10</v>
@@ -2205,13 +2491,13 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B5" t="s">
         <v>41</v>
       </c>
       <c r="C5" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D5" t="s">
         <v>10</v>
@@ -2225,13 +2511,13 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B6" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C6" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D6" t="s">
         <v>7</v>
@@ -2245,13 +2531,13 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" t="s">
         <v>54</v>
-      </c>
-      <c r="C7" t="s">
-        <v>57</v>
       </c>
       <c r="D7" t="s">
         <v>10</v>
@@ -2265,13 +2551,13 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" t="s">
         <v>55</v>
-      </c>
-      <c r="C8" t="s">
-        <v>58</v>
       </c>
       <c r="D8" t="s">
         <v>10</v>
@@ -2285,13 +2571,13 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>50</v>
+      </c>
+      <c r="B9" t="s">
         <v>53</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>56</v>
-      </c>
-      <c r="C9" t="s">
-        <v>59</v>
       </c>
       <c r="D9" t="s">
         <v>10</v>
@@ -2305,13 +2591,13 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B10" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C10" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D10" t="s">
         <v>7</v>
@@ -2325,13 +2611,13 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B11" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C11" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D11" t="s">
         <v>10</v>
@@ -2345,13 +2631,13 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>58</v>
+      </c>
+      <c r="B12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C12" t="s">
         <v>61</v>
-      </c>
-      <c r="B12" t="s">
-        <v>63</v>
-      </c>
-      <c r="C12" t="s">
-        <v>64</v>
       </c>
       <c r="D12" t="s">
         <v>10</v>
@@ -2365,13 +2651,13 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B13" t="s">
+        <v>53</v>
+      </c>
+      <c r="C13" t="s">
         <v>56</v>
-      </c>
-      <c r="C13" t="s">
-        <v>59</v>
       </c>
       <c r="D13" t="s">
         <v>10</v>
@@ -2385,13 +2671,13 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B14" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C14" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D14" t="s">
         <v>3</v>
@@ -2405,13 +2691,13 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>68</v>
+      </c>
+      <c r="B15" t="s">
+        <v>69</v>
+      </c>
+      <c r="C15" t="s">
         <v>71</v>
-      </c>
-      <c r="B15" t="s">
-        <v>72</v>
-      </c>
-      <c r="C15" t="s">
-        <v>74</v>
       </c>
       <c r="D15" t="s">
         <v>7</v>
@@ -2425,13 +2711,13 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B16" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C16" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D16" t="s">
         <v>7</v>
@@ -2445,13 +2731,13 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B17" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C17" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D17" t="s">
         <v>7</v>
@@ -2465,13 +2751,13 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>78</v>
+      </c>
+      <c r="B18" t="s">
         <v>81</v>
       </c>
-      <c r="B18" t="s">
-        <v>84</v>
-      </c>
       <c r="C18" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D18" t="s">
         <v>7</v>
@@ -2485,13 +2771,13 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B19" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C19" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D19" t="s">
         <v>7</v>
@@ -2505,13 +2791,13 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B20" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C20" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D20" t="s">
         <v>7</v>
@@ -2525,13 +2811,13 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B21" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C21" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D21" t="s">
         <v>7</v>
@@ -2545,13 +2831,13 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B22" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C22" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D22" t="s">
         <v>7</v>
@@ -2565,13 +2851,13 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B23" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C23" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D23" t="s">
         <v>7</v>
@@ -2585,13 +2871,13 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B24" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="C24" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="D24" t="s">
         <v>10</v>
@@ -2605,13 +2891,13 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B25" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C25" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="D25" t="s">
         <v>10</v>
@@ -2625,13 +2911,13 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B26" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="C26" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="D26" t="s">
         <v>10</v>
@@ -2645,13 +2931,13 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B27" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="C27" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="D27" t="s">
         <v>10</v>
@@ -2665,13 +2951,13 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B28" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C28" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="D28" t="s">
         <v>10</v>
@@ -2685,13 +2971,13 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="B29" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="C29" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D29" t="s">
         <v>7</v>
@@ -2705,13 +2991,13 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="B30" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="C30" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="D30" t="s">
         <v>7</v>
@@ -2725,13 +3011,13 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="B31" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="C31" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="D31" t="s">
         <v>7</v>
@@ -2745,13 +3031,13 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="B32" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C32" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="D32" t="s">
         <v>7</v>
@@ -2765,13 +3051,13 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
+        <v>110</v>
+      </c>
+      <c r="B33" t="s">
         <v>115</v>
       </c>
-      <c r="B33" t="s">
+      <c r="C33" t="s">
         <v>120</v>
-      </c>
-      <c r="C33" t="s">
-        <v>125</v>
       </c>
       <c r="D33" t="s">
         <v>7</v>
@@ -2785,13 +3071,13 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="B34" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="C34" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D34" t="s">
         <v>7</v>
@@ -2805,13 +3091,13 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="B35" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="C35" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="D35" t="s">
         <v>10</v>
@@ -2828,10 +3114,10 @@
         <v>18</v>
       </c>
       <c r="B36" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="C36" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="D36" t="s">
         <v>4</v>
@@ -2848,10 +3134,10 @@
         <v>18</v>
       </c>
       <c r="B37" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="C37" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="D37" t="s">
         <v>3</v>
@@ -2868,10 +3154,10 @@
         <v>18</v>
       </c>
       <c r="B38" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="C38" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="D38" t="s">
         <v>5</v>
@@ -2888,10 +3174,10 @@
         <v>18</v>
       </c>
       <c r="B39" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C39" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="D39" t="s">
         <v>3</v>
@@ -2908,10 +3194,10 @@
         <v>18</v>
       </c>
       <c r="B40" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="C40" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="D40" t="s">
         <v>8</v>
@@ -2928,10 +3214,10 @@
         <v>18</v>
       </c>
       <c r="B41" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C41" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="D41" t="s">
         <v>8</v>
@@ -2948,10 +3234,10 @@
         <v>18</v>
       </c>
       <c r="B42" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C42" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="D42" t="s">
         <v>3</v>
